--- a/Assets/ExcelConfigs/Languages.xlsx
+++ b/Assets/ExcelConfigs/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="简体中文" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>文本键</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>cn</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>信息</t>
   </si>
   <si>
     <t>en</t>
@@ -994,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.3333333333333" customWidth="1"/>
@@ -1048,6 +1054,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1061,13 +1078,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.3333333333333" customWidth="1"/>
@@ -1115,7 +1132,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
